--- a/Database/Test-list-2.xlsx
+++ b/Database/Test-list-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USTH_SUBJECTS\B3\GroupProject\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FBDD7EB-A738-44A7-88D9-EFF8263CA3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806D8CBA-1FED-4583-AD08-06B422A795CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="996" yWindow="1752" windowWidth="17280" windowHeight="9420" xr2:uid="{C5506290-364B-4D60-9D1F-7285929AE7D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C5506290-364B-4D60-9D1F-7285929AE7D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD844D9-7CA1-4E7E-BFB6-474F489D603D}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,36 +490,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
